--- a/test-sheet.xlsx
+++ b/test-sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shivam\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shivam\Downloads\ManageCX-zip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{584D5E92-E6CB-436E-AD0F-2A3F48AAD3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A997FA-F0B0-47C3-A105-476A8B147CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{45AB218E-DDF0-46BD-825C-B05A84B2960C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
   <si>
     <t>EMPLOYEE_NUMBER</t>
   </si>
@@ -133,6 +133,27 @@
   </si>
   <si>
     <t>Mumbai</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>p4</t>
+  </si>
+  <si>
+    <t>p5</t>
+  </si>
+  <si>
+    <t>p6</t>
+  </si>
+  <si>
+    <t>p7</t>
   </si>
 </sst>
 </file>
@@ -498,7 +519,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -554,6 +575,9 @@
       <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
       <c r="F2">
         <v>5</v>
       </c>
@@ -589,6 +613,9 @@
       <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
       <c r="F3">
         <v>5</v>
       </c>
@@ -624,6 +651,9 @@
       <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
       <c r="F4">
         <v>6</v>
       </c>
@@ -659,6 +689,9 @@
       <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
       <c r="F5">
         <v>6</v>
       </c>
@@ -694,6 +727,9 @@
       <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
       <c r="F6">
         <v>7</v>
       </c>
@@ -721,6 +757,9 @@
       <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
       <c r="F7">
         <v>7</v>
       </c>
@@ -747,6 +786,9 @@
       </c>
       <c r="D8" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
       </c>
       <c r="H8" s="1"/>
       <c r="K8" s="1"/>

--- a/test-sheet.xlsx
+++ b/test-sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shivam\Downloads\ManageCX-zip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A997FA-F0B0-47C3-A105-476A8B147CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A726FDE-E9B7-4FA7-8C37-C91BFECE4996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{45AB218E-DDF0-46BD-825C-B05A84B2960C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
   <si>
     <t>EMPLOYEE_NUMBER</t>
   </si>
@@ -154,6 +154,15 @@
   </si>
   <si>
     <t>p7</t>
+  </si>
+  <si>
+    <t>Time Type</t>
+  </si>
+  <si>
+    <t>Part Time</t>
+  </si>
+  <si>
+    <t>Full Time</t>
   </si>
 </sst>
 </file>
@@ -516,15 +525,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55BD6E93-FAF9-4776-BEC2-C97BDAA649ED}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -561,8 +570,11 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -599,8 +611,11 @@
       <c r="L2" t="s">
         <v>28</v>
       </c>
+      <c r="M2" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -637,8 +652,11 @@
       <c r="L3" t="s">
         <v>29</v>
       </c>
+      <c r="M3" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -675,8 +693,11 @@
       <c r="L4" t="s">
         <v>30</v>
       </c>
+      <c r="M4" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -713,8 +734,11 @@
       <c r="L5" t="s">
         <v>28</v>
       </c>
+      <c r="M5" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -743,8 +767,11 @@
       <c r="L6" t="s">
         <v>31</v>
       </c>
+      <c r="M6" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -773,8 +800,11 @@
       <c r="L7" t="s">
         <v>30</v>
       </c>
+      <c r="M7" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -794,6 +824,9 @@
       <c r="K8" s="1"/>
       <c r="L8" t="s">
         <v>32</v>
+      </c>
+      <c r="M8" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
